--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1785996974558428</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.555707655712876</v>
+        <v>-1.565071495465494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005424971041723046</v>
+        <v>0.002045551988290469</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1465638893301927</v>
+        <v>-0.159422051532098</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1541418774452024</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.565591708785084</v>
+        <v>-1.579731122551728</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01479353285170474</v>
+        <v>0.009528438890953939</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.109440648354316</v>
+        <v>-0.12416087517672</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1337458608673073</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.636205354604875</v>
+        <v>-1.64430683102221</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04484919969262093</v>
+        <v>-0.04948626002397275</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1165977132988702</v>
+        <v>-0.1329360317779713</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1183271796524902</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.773718748127749</v>
+        <v>-1.776606286205775</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09317945681215854</v>
+        <v>-0.08918774432054</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1221477047205764</v>
+        <v>-0.1405700245162796</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1029775044176096</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.816198376173412</v>
+        <v>-1.798587463234739</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1184220014604577</v>
+        <v>-0.108844095107343</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1199251897212998</v>
+        <v>-0.1370678319713856</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08327343469773374</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.63984133877508</v>
+        <v>-1.622520045354726</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1150095280054778</v>
+        <v>-0.08888395863012896</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1154896038374745</v>
+        <v>-0.1286389595768204</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05692770372688207</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.32499895104647</v>
+        <v>-1.325674992259069</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1297486430573374</v>
+        <v>-0.1024677436469539</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07465639979269205</v>
+        <v>-0.09364851451030615</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02511843218513189</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8269116182447167</v>
+        <v>-0.8493059752930223</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.06382242618077941</v>
+        <v>-0.02853449150033929</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07937058706098761</v>
+        <v>-0.09128905984747641</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0106473833660511</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2979986949714105</v>
+        <v>-0.3377914723770132</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0610427084125624</v>
+        <v>-0.01259912191629113</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009337754296956104</v>
+        <v>-0.02916409914885957</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.049235898497365</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2669828764665009</v>
+        <v>0.2122290473129352</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09418525503066968</v>
+        <v>-0.05031262006265561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06609711209137936</v>
+        <v>0.04472350644323732</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.08998760720447942</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9141770406290687</v>
+        <v>0.8428771224723901</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1571790742842445</v>
+        <v>-0.09455514952417535</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1386074509523381</v>
+        <v>0.12302308763234</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.134612347748404</v>
       </c>
       <c r="E13" t="n">
-        <v>1.584134669323887</v>
+        <v>1.489720280370908</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3133579735570626</v>
+        <v>-0.2435738358141967</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2414648784719742</v>
+        <v>0.2242325171319743</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1844589242857276</v>
       </c>
       <c r="E14" t="n">
-        <v>2.243396838089467</v>
+        <v>2.139946005361101</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5526104540138885</v>
+        <v>-0.480567598831956</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3503948717615883</v>
+        <v>0.3316325638356841</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2416177285552397</v>
       </c>
       <c r="E15" t="n">
-        <v>2.939478462140513</v>
+        <v>2.821554523591787</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8452221826828077</v>
+        <v>-0.7688004063054167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4901756398286959</v>
+        <v>0.4656996424924701</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3080824519761134</v>
       </c>
       <c r="E16" t="n">
-        <v>3.614589429438469</v>
+        <v>3.490290713448475</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.080788310357547</v>
+        <v>-1.004315378358714</v>
       </c>
       <c r="G16" t="n">
-        <v>0.651851013873096</v>
+        <v>0.6246535374761414</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3834504083845081</v>
       </c>
       <c r="E17" t="n">
-        <v>4.272771821086837</v>
+        <v>4.138901494820214</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.362901331487391</v>
+        <v>-1.272252783282124</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8236976994793412</v>
+        <v>0.7952567479765591</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4667790584335704</v>
       </c>
       <c r="E18" t="n">
-        <v>4.924930441557987</v>
+        <v>4.772861306210885</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.578274367854964</v>
+        <v>-1.491338930756845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9825886336981604</v>
+        <v>0.9537085308605354</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5539266994299784</v>
       </c>
       <c r="E19" t="n">
-        <v>5.410817552150539</v>
+        <v>5.260163459993486</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.799433498512439</v>
+        <v>-1.703563141872256</v>
       </c>
       <c r="G19" t="n">
-        <v>1.14811091047502</v>
+        <v>1.118165196692274</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6400818364173081</v>
       </c>
       <c r="E20" t="n">
-        <v>5.831417497629781</v>
+        <v>5.66725989543109</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.94961459792354</v>
+        <v>-1.857416427893352</v>
       </c>
       <c r="G20" t="n">
-        <v>1.275294803514358</v>
+        <v>1.244985491314592</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7206059820644175</v>
       </c>
       <c r="E21" t="n">
-        <v>6.127539288939201</v>
+        <v>5.968728629695568</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.152319928402886</v>
+        <v>-2.065427776830602</v>
       </c>
       <c r="G21" t="n">
-        <v>1.392079152219262</v>
+        <v>1.364837603286911</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7902036428923037</v>
       </c>
       <c r="E22" t="n">
-        <v>6.453672902834461</v>
+        <v>6.292882127536232</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.255504751899752</v>
+        <v>-2.180831710766126</v>
       </c>
       <c r="G22" t="n">
-        <v>1.489312609418491</v>
+        <v>1.463621469320621</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8438181231375285</v>
       </c>
       <c r="E23" t="n">
-        <v>6.576290566402906</v>
+        <v>6.419153089485215</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.345731462980511</v>
+        <v>-2.278066741984476</v>
       </c>
       <c r="G23" t="n">
-        <v>1.591400341587811</v>
+        <v>1.567036099609197</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8785928562407973</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7168536219733</v>
+        <v>6.567539020088474</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.404437654147662</v>
+        <v>-2.345211249660921</v>
       </c>
       <c r="G24" t="n">
-        <v>1.592443916265233</v>
+        <v>1.570207748138618</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8933177596276697</v>
       </c>
       <c r="E25" t="n">
-        <v>6.791693509133784</v>
+        <v>6.640194168708592</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.40893620079634</v>
+        <v>-2.34887635318487</v>
       </c>
       <c r="G25" t="n">
-        <v>1.637198001941176</v>
+        <v>1.616244659398421</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8899596019959125</v>
       </c>
       <c r="E26" t="n">
-        <v>6.797629135240208</v>
+        <v>6.662435058892571</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.423207045159613</v>
+        <v>-2.354021821692402</v>
       </c>
       <c r="G26" t="n">
-        <v>1.672881015421062</v>
+        <v>1.665117953114807</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8709830646379276</v>
       </c>
       <c r="E27" t="n">
-        <v>6.73718365294402</v>
+        <v>6.609943095216314</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.336705250329412</v>
+        <v>-2.281766473929093</v>
       </c>
       <c r="G27" t="n">
-        <v>1.627857772475377</v>
+        <v>1.617324436515633</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8395625849911393</v>
       </c>
       <c r="E28" t="n">
-        <v>6.623507992003684</v>
+        <v>6.511699117741211</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.280143660215032</v>
+        <v>-2.238906720265636</v>
       </c>
       <c r="G28" t="n">
-        <v>1.582677127617562</v>
+        <v>1.582455190921459</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7998529068937126</v>
       </c>
       <c r="E29" t="n">
-        <v>6.477032920613684</v>
+        <v>6.379689282075964</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.194573684704642</v>
+        <v>-2.15176823470087</v>
       </c>
       <c r="G29" t="n">
-        <v>1.535818578376441</v>
+        <v>1.540085744214287</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7555228867214993</v>
       </c>
       <c r="E30" t="n">
-        <v>6.308505841334262</v>
+        <v>6.22577697033782</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.151120525832454</v>
+        <v>-2.113775348160474</v>
       </c>
       <c r="G30" t="n">
-        <v>1.465897500970022</v>
+        <v>1.468313620321218</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.709796682440225</v>
       </c>
       <c r="E31" t="n">
-        <v>6.038413604233792</v>
+        <v>5.970990495172877</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.979549293572437</v>
+        <v>-1.960552456797459</v>
       </c>
       <c r="G31" t="n">
-        <v>1.385833444345941</v>
+        <v>1.388323542595839</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6646472742966907</v>
       </c>
       <c r="E32" t="n">
-        <v>5.790225417225342</v>
+        <v>5.736140546198329</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.860352760564139</v>
+        <v>-1.849303146332608</v>
       </c>
       <c r="G32" t="n">
-        <v>1.309345559165455</v>
+        <v>1.322424084044343</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.621425664298914</v>
       </c>
       <c r="E33" t="n">
-        <v>5.444891918088456</v>
+        <v>5.407650625678483</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.797155105834356</v>
+        <v>-1.790264050121301</v>
       </c>
       <c r="G33" t="n">
-        <v>1.232659347575686</v>
+        <v>1.248158713863134</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5800115068083274</v>
       </c>
       <c r="E34" t="n">
-        <v>5.152459627599366</v>
+        <v>5.130275402103754</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.715126673346892</v>
+        <v>-1.706623035044065</v>
       </c>
       <c r="G34" t="n">
-        <v>1.119065535629658</v>
+        <v>1.138630593307425</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5403428049915009</v>
       </c>
       <c r="E35" t="n">
-        <v>4.755718663960799</v>
+        <v>4.750467736172141</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.667671570858797</v>
+        <v>-1.662746465028247</v>
       </c>
       <c r="G35" t="n">
-        <v>1.04647177375527</v>
+        <v>1.064654842644536</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5018077361656437</v>
       </c>
       <c r="E36" t="n">
-        <v>4.296564694124418</v>
+        <v>4.299336541797029</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.593232271564684</v>
+        <v>-1.597362497738977</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9830671355110359</v>
+        <v>1.004993221870754</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4632295136964282</v>
       </c>
       <c r="E37" t="n">
-        <v>3.936336252042664</v>
+        <v>3.952986226307783</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.559038280173548</v>
+        <v>-1.564297078057814</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9028991936249492</v>
+        <v>0.9238619802824317</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4252870883996898</v>
       </c>
       <c r="E38" t="n">
-        <v>3.601191378677958</v>
+        <v>3.628166918378809</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.467696376545348</v>
+        <v>-1.473943658437791</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8110724921073884</v>
+        <v>0.8351754469118658</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3876270508877907</v>
       </c>
       <c r="E39" t="n">
-        <v>3.179765073160033</v>
+        <v>3.217859483933752</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.444122292165628</v>
+        <v>-1.453097349195284</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7450471120261885</v>
+        <v>0.765769073758112</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3511356865783044</v>
       </c>
       <c r="E40" t="n">
-        <v>2.777256903461021</v>
+        <v>2.827926152994812</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.441877740898653</v>
+        <v>-1.451498145768043</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6750536297401895</v>
+        <v>0.6990086267472646</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3164509221641205</v>
       </c>
       <c r="E41" t="n">
-        <v>2.427080147487893</v>
+        <v>2.479702754751218</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.411423618939727</v>
+        <v>-1.424297521332845</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6238051411697604</v>
+        <v>0.6493640636614409</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2835778135633271</v>
       </c>
       <c r="E42" t="n">
-        <v>2.055098504627387</v>
+        <v>2.113326193981663</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.381455081879723</v>
+        <v>-1.393667896241895</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5579245708477201</v>
+        <v>0.5818559575679757</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2533321936190857</v>
       </c>
       <c r="E43" t="n">
-        <v>1.814560050548458</v>
+        <v>1.87097919193236</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.356358921009704</v>
+        <v>-1.365459899569065</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4836733668386027</v>
+        <v>0.5089898903856029</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.225833081327172</v>
       </c>
       <c r="E44" t="n">
-        <v>1.594066729979294</v>
+        <v>1.642543370877113</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.356811451507079</v>
+        <v>-1.367371545791885</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126441799707879</v>
+        <v>0.4358578139717305</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2007934152863744</v>
       </c>
       <c r="E45" t="n">
-        <v>1.374708277196588</v>
+        <v>1.424038036458151</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.286409511259102</v>
+        <v>-1.298417703135505</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3581846923929054</v>
+        <v>0.3851303257304519</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1784847105344577</v>
       </c>
       <c r="E46" t="n">
-        <v>1.152184471960946</v>
+        <v>1.201882551696894</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.224301864770819</v>
+        <v>-1.234708492191299</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3182549753237495</v>
+        <v>0.3400378259434297</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1580419647713032</v>
       </c>
       <c r="E47" t="n">
-        <v>1.025727775755648</v>
+        <v>1.075835100463135</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.17609044609494</v>
+        <v>-1.190245600052797</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2442571883931616</v>
+        <v>0.2683019044901509</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1391962694592681</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8511407228592187</v>
+        <v>0.8895766957822602</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.10222330275142</v>
+        <v>-1.116564977975151</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1807533869442854</v>
+        <v>0.1995534713291008</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1219311678889938</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6894999772354872</v>
+        <v>0.7310981545732217</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.039388459429097</v>
+        <v>-1.051371466999559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1351540530002044</v>
+        <v>0.154896974838679</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1055937578919232</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6093902740568886</v>
+        <v>0.6509459528783481</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9801392316650961</v>
+        <v>-0.9871577829269759</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1150994753757124</v>
+        <v>0.1306995788869235</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0903349556510525</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4894704792623532</v>
+        <v>0.5291735375780418</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9606859293449409</v>
+        <v>-0.9660769448353957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1019013250436061</v>
+        <v>0.1109912854691176</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07585268132906818</v>
       </c>
       <c r="E52" t="n">
-        <v>0.338562970026771</v>
+        <v>0.3665553260799824</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9576504334695125</v>
+        <v>-0.9583461499211274</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04732063799338345</v>
+        <v>0.05993010517412326</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0618495267673941</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2778577745755674</v>
+        <v>0.3132905190151672</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.934128291720795</v>
+        <v>-0.9442673358906535</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0515468793340758</v>
+        <v>0.0593398480036355</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04863318737318127</v>
       </c>
       <c r="E54" t="n">
-        <v>0.16117888515179</v>
+        <v>0.1798750842745996</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8975016537776886</v>
+        <v>-0.9009046831179408</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01122523150371608</v>
+        <v>0.01875691299913987</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03575379667916403</v>
       </c>
       <c r="E55" t="n">
-        <v>0.102471119965517</v>
+        <v>0.1066627328855407</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9079555017718072</v>
+        <v>-0.9064609706161322</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0001533527241665915</v>
+        <v>0.007995344266807069</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0229655940503782</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02150515038493087</v>
+        <v>0.0224731721445308</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9166889468663441</v>
+        <v>-0.9106447134405494</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03578757161129286</v>
+        <v>-0.02792377208127463</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01008703238882433</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07709455541158682</v>
+        <v>-0.07860403974891417</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9446057500017331</v>
+        <v>-0.9350412228111494</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07534424614870044</v>
+        <v>-0.06853503942995368</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.002982680249319456</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1178773908444876</v>
+        <v>-0.1224971369655052</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9424690190445674</v>
+        <v>-0.9304387909004662</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1018318399219484</v>
+        <v>-0.09609454022480741</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01599620225282199</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1939324207666156</v>
+        <v>-0.2014719723576459</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.952326313791713</v>
+        <v>-0.9440611393857631</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1174980522362542</v>
+        <v>-0.1167456710962724</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.02859778875299594</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2754744813455977</v>
+        <v>-0.2884979155552396</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9862432778175002</v>
+        <v>-0.9700269458202998</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1269988316524251</v>
+        <v>-0.1281258293432764</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.04016318269554723</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3554015983061253</v>
+        <v>-0.3753019220567299</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9680712270620837</v>
+        <v>-0.9523349708968801</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1653435114664312</v>
+        <v>-0.1651074085982361</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.04988682630844009</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4783655460812564</v>
+        <v>-0.4950218164228603</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.001586029202379</v>
+        <v>-0.9807058785487643</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1851981886625181</v>
+        <v>-0.1856294699017544</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05698527678836161</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5262062832540695</v>
+        <v>-0.5417890725549462</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.024188156774696</v>
+        <v>-0.9941291136152166</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2196786515337309</v>
+        <v>-0.2174466924197265</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06113789593443686</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6706477219393484</v>
+        <v>-0.6864115234391748</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.064014775591406</v>
+        <v>-1.031567158415353</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2675241107639079</v>
+        <v>-0.263661467840236</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.06197165011696028</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8373513000667435</v>
+        <v>-0.8518905146901981</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.128577104899357</v>
+        <v>-1.091121745888886</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3289769652977294</v>
+        <v>-0.323436417990751</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05935632004108871</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9463623553411047</v>
+        <v>-0.9589065007283105</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.15557861591571</v>
+        <v>-1.116455583646221</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.364497854808122</v>
+        <v>-0.3609358495366186</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05325266051001108</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.033316680668679</v>
+        <v>-1.037446906842972</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.213498584531772</v>
+        <v>-1.171986978245709</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4184882846878569</v>
+        <v>-0.4075882022728496</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.04365876798528456</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.1302982948085</v>
+        <v>-1.122873646613324</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.27476570480928</v>
+        <v>-1.224705600675433</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4466270245193493</v>
+        <v>-0.4428178982458016</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03078905555494269</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.288192087913975</v>
+        <v>-1.265930735481419</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.330282933236677</v>
+        <v>-1.278235629962188</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4794327310454982</v>
+        <v>-0.473301926568032</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01494196327158204</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.344589980039739</v>
+        <v>-1.318565934897714</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.414324536180284</v>
+        <v>-1.354082102350743</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5163969960901236</v>
+        <v>-0.5058227356332256</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.00386748238758139</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.403470887329356</v>
+        <v>-1.370928829006024</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.447084596151916</v>
+        <v>-1.379279000444525</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5711303629951124</v>
+        <v>-0.5552862865200997</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.02571206648679174</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.480033538418103</v>
+        <v>-1.445425579998065</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.495336152315388</v>
+        <v>-1.428627647935544</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5584799713172187</v>
+        <v>-0.5374054293021239</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.05030007920989134</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.52215586412323</v>
+        <v>-1.470180965728321</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.500648466849778</v>
+        <v>-1.435459677931549</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5866989861238975</v>
+        <v>-0.5605686946911848</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.0785448407207366</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.569973778018785</v>
+        <v>-1.51306747771684</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.535639698925853</v>
+        <v>-1.469176741528931</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5929289538060056</v>
+        <v>-0.5668993995970562</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.110335766509683</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.564939277859305</v>
+        <v>-1.500879847660609</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.525266125906921</v>
+        <v>-1.462544611961331</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6137091542454173</v>
+        <v>-0.5873018354473557</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1458272387086536</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.481752367298563</v>
+        <v>-1.421305310983253</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.590348668534461</v>
+        <v>-1.520108852255979</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5961793032914915</v>
+        <v>-0.5684891589095699</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.185045576183261</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.435367597812953</v>
+        <v>-1.386547820746691</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.600527063182352</v>
+        <v>-1.533724904664791</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5705763082644145</v>
+        <v>-0.5444633310420361</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.227219446003597</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.262175125857996</v>
+        <v>-1.213642607281371</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.546457932346553</v>
+        <v>-1.484527363009416</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5319105285496631</v>
+        <v>-0.5061768899355182</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2722727477282432</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.142559116753872</v>
+        <v>-1.096792936782933</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.522462797851884</v>
+        <v>-1.467713690755682</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5341204513959693</v>
+        <v>-0.5020655519906808</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3197260595031222</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9638898452663485</v>
+        <v>-0.9208120899545912</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.48775016716028</v>
+        <v>-1.435610783767194</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5218997669381907</v>
+        <v>-0.490775112833591</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3686716822177952</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8188589364201424</v>
+        <v>-0.774712422125022</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.454155877054359</v>
+        <v>-1.409772472881483</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4902100399690441</v>
+        <v>-0.4595324072948936</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.4188665431525215</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6138319277368788</v>
+        <v>-0.5800959759100411</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.446753265126882</v>
+        <v>-1.405547805559912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.444055077275144</v>
+        <v>-0.4188062365503596</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.469398156391433</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4084334505409881</v>
+        <v>-0.3769026995030927</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.358487781871264</v>
+        <v>-1.330154650678291</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3599694017961399</v>
+        <v>-0.3368753932484162</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.5189117633306034</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.218998675273329</v>
+        <v>-0.1930478220204446</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.335559045331277</v>
+        <v>-1.319246698167677</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3383046026105572</v>
+        <v>-0.3163895343846878</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5661863479338335</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.02655909750310693</v>
+        <v>-0.001733667921952482</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.213185354726633</v>
+        <v>-1.202681138120633</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3092340434592549</v>
+        <v>-0.2823010022746788</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6085006876905684</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2357732253293509</v>
+        <v>0.2520359908906296</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.109778594533663</v>
+        <v>-1.106687220979429</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2423224906127626</v>
+        <v>-0.2135446990180221</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.6436476172329294</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4687862939893408</v>
+        <v>0.4785735448855885</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9809805448854313</v>
+        <v>-0.9854310839509091</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1805579802929236</v>
+        <v>-0.1551895141149204</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6684341958296085</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6424525456998096</v>
+        <v>0.6544859218821534</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8316840442205005</v>
+        <v>-0.8374654164530378</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1556806080807663</v>
+        <v>-0.1281746239360367</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6797453072703271</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8256919817060292</v>
+        <v>0.8331717205704501</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7132438273999876</v>
+        <v>-0.7175550657732301</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1010290901700851</v>
+        <v>-0.07990732758135115</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.6752416143600954</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9627544187506505</v>
+        <v>0.9704718345023877</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5343046116331615</v>
+        <v>-0.5507594075272388</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08272324778935806</v>
+        <v>-0.06146297151794968</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6538718759966847</v>
       </c>
       <c r="E91" t="n">
-        <v>1.082060346087879</v>
+        <v>1.087295533685325</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3351801746547754</v>
+        <v>-0.3522079135090062</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1010983470114223</v>
+        <v>-0.07948391643772125</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6159372337427566</v>
       </c>
       <c r="E92" t="n">
-        <v>1.143362094786055</v>
+        <v>1.149074210177256</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1977761754608318</v>
+        <v>-0.2128348163943155</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06273163092971804</v>
+        <v>-0.04240159995899835</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5636357411710063</v>
       </c>
       <c r="E93" t="n">
-        <v>1.17957555270982</v>
+        <v>1.192916938781965</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09777716666547785</v>
+        <v>-0.1126390552087989</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06095298932264826</v>
+        <v>-0.04147450269655225</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5015469608685081</v>
       </c>
       <c r="E94" t="n">
-        <v>1.162266064432877</v>
+        <v>1.17063197606259</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05251804913191832</v>
+        <v>0.03471274483176495</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02594208200755706</v>
+        <v>-0.01063159801466527</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4356795257595583</v>
       </c>
       <c r="E95" t="n">
-        <v>1.174354531284466</v>
+        <v>1.177570252349283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131283539980926</v>
+        <v>0.110391584183902</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05957729661063146</v>
+        <v>-0.04505539619751131</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3721674891651949</v>
       </c>
       <c r="E96" t="n">
-        <v>1.095423768427721</v>
+        <v>1.098406534662586</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2089550875406298</v>
+        <v>0.1839486457605257</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0892003364735104</v>
+        <v>-0.07855209711791125</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3157953580705302</v>
       </c>
       <c r="E97" t="n">
-        <v>1.044663225784896</v>
+        <v>1.04377233096224</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2560780719941298</v>
+        <v>0.231716978053759</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05265790855339363</v>
+        <v>-0.04272112584062239</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2662785078156913</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9291459624726381</v>
+        <v>0.9315825440724116</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2372890057431635</v>
+        <v>0.2130506852942542</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.110901338098883</v>
+        <v>-0.1020490545606879</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2248629577899155</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8949141946225908</v>
+        <v>0.8917818965712024</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2201447894739564</v>
+        <v>0.2027046576099447</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09769216963292761</v>
+        <v>-0.09105610501752391</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1832092472606994</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8400690723599896</v>
+        <v>0.8374829589436926</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2109540918246817</v>
+        <v>0.1914677351029792</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09975413468183152</v>
+        <v>-0.09261280992849029</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1413040425805457</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7842401881465756</v>
+        <v>0.7790994416964075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1906193387965981</v>
+        <v>0.1763902059400398</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08616877564588528</v>
+        <v>-0.08018278092757876</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.08715470593116249</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7714512827860075</v>
+        <v>0.7629263952250429</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1621673691599668</v>
+        <v>0.1523974324740535</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06972184984741439</v>
+        <v>-0.06468656267837349</v>
       </c>
     </row>
   </sheetData>
